--- a/vscard-tbl/vseg.xlsx
+++ b/vscard-tbl/vseg.xlsx
@@ -7,9 +7,7 @@
     <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="vseg" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -18,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>grade</t>
+    <t>pid</t>
   </si>
   <si>
     <t>gradelevel</t>
@@ -90,8 +88,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -101,6 +99,65 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -110,89 +167,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,6 +203,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -215,38 +227,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,25 +259,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,157 +421,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,30 +450,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,6 +464,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,19 +495,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,8 +504,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,153 +539,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,7 +1026,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1280,42 +1278,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="256" width="11" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="256" width="11" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/vscard-tbl/vseg.xlsx
+++ b/vscard-tbl/vseg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="vseg" sheetId="1" r:id="rId1"/>
@@ -14,17 +14,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>pid</t>
   </si>
   <si>
+    <t>sid</t>
+  </si>
+  <si>
     <t>gradelevel</t>
   </si>
   <si>
     <t>nametext</t>
   </si>
   <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
     <t>nextstart</t>
   </si>
   <si>
@@ -41,6 +50,12 @@
   </si>
   <si>
     <t>段位名称</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>特效</t>
   </si>
   <si>
     <t>升级星数</t>
@@ -106,36 +121,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -144,20 +129,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -166,6 +137,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -173,23 +218,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,47 +251,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,31 +274,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,151 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,17 +468,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,8 +480,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,11 +501,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,21 +555,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -558,10 +573,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,133 +585,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,18 +1038,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="256" width="11" customWidth="1"/>
+    <col min="1" max="1" width="11"/>
+    <col min="2" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="259" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1053,224 +1072,332 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>1111</v>
+      </c>
+      <c r="F3">
+        <v>1111</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>50</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>1111</v>
+      </c>
+      <c r="F4">
+        <v>1111</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>50</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>1111</v>
+      </c>
+      <c r="F5">
+        <v>1111</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>50</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:9">
       <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1111</v>
+      </c>
+      <c r="F6">
+        <v>1111</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>80</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:9">
       <c r="A7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1111</v>
+      </c>
+      <c r="F7">
+        <v>1111</v>
+      </c>
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>80</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:9">
       <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1111</v>
+      </c>
+      <c r="F8">
+        <v>1111</v>
+      </c>
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>80</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:9">
       <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1111</v>
+      </c>
+      <c r="F9">
+        <v>1111</v>
+      </c>
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>120</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:9">
       <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>1111</v>
+      </c>
+      <c r="F10">
+        <v>1111</v>
+      </c>
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>120</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:9">
       <c r="A11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>1111</v>
+      </c>
+      <c r="F11">
+        <v>1111</v>
+      </c>
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>120</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:9">
       <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1111</v>
+      </c>
+      <c r="F12">
+        <v>1111</v>
+      </c>
+      <c r="G12">
         <v>4</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>120</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>2</v>
       </c>
     </row>
